--- a/Documents/estimation.xlsx
+++ b/Documents/estimation.xlsx
@@ -513,7 +513,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -590,8 +590,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,6 +609,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -721,11 +733,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -928,9 +941,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -962,24 +972,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -989,30 +1047,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1031,38 +1068,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 30" xfId="1"/>
   </cellStyles>
@@ -1368,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1394,9 +1419,9 @@
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
       <c r="E2" s="57"/>
       <c r="F2" s="57" t="s">
         <v>119</v>
@@ -1404,11 +1429,11 @@
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="57"/>
       <c r="F3" s="57">
         <f>SUM(E5:E11)</f>
@@ -1444,39 +1469,39 @@
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.2">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="101" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="104">
         <v>24</v>
       </c>
-      <c r="F5" s="84"/>
+      <c r="F5" s="104"/>
       <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="107"/>
-      <c r="C6" s="108"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="101"/>
       <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
       <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="B7" s="107"/>
-      <c r="C7" s="108"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="101"/>
       <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1499,28 +1524,28 @@
       <c r="L8" s="41"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="87">
+      <c r="D9" s="112"/>
+      <c r="E9" s="96">
         <v>16</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="96"/>
       <c r="I9" s="24"/>
       <c r="J9" s="41"/>
       <c r="K9" s="41"/>
       <c r="L9" s="41"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="94"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
       <c r="I10" s="24"/>
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
@@ -1528,22 +1553,22 @@
     </row>
     <row r="11" spans="1:12" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
       <c r="I11" s="24"/>
       <c r="J11" s="41"/>
       <c r="K11" s="41"/>
       <c r="L11" s="41"/>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="98"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="57"/>
       <c r="F12" s="57">
         <v>600</v>
@@ -1593,10 +1618,10 @@
     </row>
     <row r="15" spans="1:12" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="115" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="26"/>
@@ -1610,37 +1635,37 @@
     </row>
     <row r="16" spans="1:12" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="34" t="s">
+      <c r="B16" s="103"/>
+      <c r="C16" s="116" t="s">
         <v>120</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="24">
         <v>5</v>
       </c>
-      <c r="F16" s="83"/>
+      <c r="F16" s="82"/>
       <c r="G16" s="39"/>
       <c r="H16" s="38"/>
       <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="41" t="s">
+      <c r="B17" s="103"/>
+      <c r="C17" s="117" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="62">
         <v>6</v>
       </c>
-      <c r="F17" s="78"/>
+      <c r="F17" s="77"/>
       <c r="G17" s="39"/>
       <c r="H17" s="38"/>
       <c r="I17" s="61"/>
     </row>
-    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="94"/>
-      <c r="C18" s="23" t="s">
+    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="103"/>
+      <c r="C18" s="118" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="25"/>
@@ -1654,8 +1679,8 @@
     </row>
     <row r="19" spans="1:9" s="41" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="113" t="s">
+      <c r="B19" s="103"/>
+      <c r="C19" s="119" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="26"/>
@@ -1665,13 +1690,13 @@
       <c r="F19" s="24"/>
       <c r="G19" s="39"/>
       <c r="H19" s="38"/>
-      <c r="I19" s="112" t="s">
+      <c r="I19" s="85" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="34"/>
-      <c r="B20" s="94"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="23" t="s">
         <v>40</v>
       </c>
@@ -1686,7 +1711,7 @@
     </row>
     <row r="21" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="34"/>
-      <c r="B21" s="94"/>
+      <c r="B21" s="103"/>
       <c r="C21" s="23" t="s">
         <v>51</v>
       </c>
@@ -1701,7 +1726,7 @@
     </row>
     <row r="22" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="34"/>
-      <c r="B22" s="94"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="25" t="s">
         <v>52</v>
       </c>
@@ -1716,7 +1741,7 @@
     </row>
     <row r="23" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34"/>
-      <c r="B23" s="94"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="25" t="s">
         <v>53</v>
       </c>
@@ -1729,10 +1754,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="34"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="23" t="s">
+      <c r="B24" s="103"/>
+      <c r="C24" s="118" t="s">
         <v>41</v>
       </c>
       <c r="D24" s="26"/>
@@ -1746,7 +1771,7 @@
     </row>
     <row r="25" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="34"/>
-      <c r="B25" s="94"/>
+      <c r="B25" s="103"/>
       <c r="C25" s="25" t="s">
         <v>54</v>
       </c>
@@ -1761,7 +1786,7 @@
     </row>
     <row r="26" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="34"/>
-      <c r="B26" s="94"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="25" t="s">
         <v>55</v>
       </c>
@@ -1776,12 +1801,12 @@
     </row>
     <row r="27" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="34"/>
-      <c r="B27" s="94"/>
+      <c r="B27" s="103"/>
       <c r="C27" s="41" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="67"/>
-      <c r="E27" s="78"/>
+      <c r="E27" s="77"/>
       <c r="F27" s="62"/>
       <c r="G27" s="39"/>
       <c r="H27" s="38"/>
@@ -1791,8 +1816,8 @@
     </row>
     <row r="28" spans="1:9" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="34"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="72" t="s">
+      <c r="B28" s="108"/>
+      <c r="C28" s="120" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="67"/>
@@ -1802,7 +1827,7 @@
       <c r="F28" s="56"/>
       <c r="G28" s="39"/>
       <c r="H28" s="38"/>
-      <c r="I28" s="73"/>
+      <c r="I28" s="72"/>
     </row>
     <row r="29" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="34"/>
@@ -1813,10 +1838,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="67"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
       <c r="I29" s="63" t="s">
         <v>122</v>
       </c>
@@ -1828,8 +1853,8 @@
         <v>81</v>
       </c>
       <c r="D30" s="67"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
       <c r="G30" s="34"/>
       <c r="H30" s="34"/>
       <c r="I30" s="63" t="s">
@@ -1843,10 +1868,10 @@
         <v>82</v>
       </c>
       <c r="D31" s="67"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
       <c r="I31" s="63" t="s">
         <v>122</v>
       </c>
@@ -1858,13 +1883,13 @@
         <v>83</v>
       </c>
       <c r="D32" s="69"/>
-      <c r="E32" s="78">
+      <c r="E32" s="77">
         <v>14</v>
       </c>
-      <c r="F32" s="78"/>
+      <c r="F32" s="77"/>
       <c r="G32" s="70"/>
       <c r="H32" s="71"/>
-      <c r="I32" s="111" t="s">
+      <c r="I32" s="84" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1878,7 +1903,7 @@
       <c r="E33" s="68"/>
       <c r="F33" s="68"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="77"/>
+      <c r="H33" s="76"/>
       <c r="I33" s="63" t="s">
         <v>122</v>
       </c>
@@ -1889,12 +1914,12 @@
       <c r="C34" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="110" t="s">
+      <c r="H34" s="76"/>
+      <c r="I34" s="83" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1904,11 +1929,11 @@
       <c r="C35" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="75"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="77"/>
+      <c r="H35" s="76"/>
       <c r="I35" s="63" t="s">
         <v>122</v>
       </c>
@@ -1919,8 +1944,8 @@
       <c r="C36" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
       <c r="G36" s="39"/>
       <c r="H36" s="38"/>
       <c r="I36" s="63" t="s">
@@ -1929,7 +1954,7 @@
     </row>
     <row r="37" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="34"/>
-      <c r="B37" s="93" t="s">
+      <c r="B37" s="102" t="s">
         <v>69</v>
       </c>
       <c r="C37" s="25" t="s">
@@ -1946,7 +1971,7 @@
     </row>
     <row r="38" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="34"/>
-      <c r="B38" s="94"/>
+      <c r="B38" s="103"/>
       <c r="C38" s="23" t="s">
         <v>45</v>
       </c>
@@ -1957,13 +1982,13 @@
       <c r="F38" s="48"/>
       <c r="G38" s="39"/>
       <c r="H38" s="38"/>
-      <c r="I38" s="111" t="s">
+      <c r="I38" s="84" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="34"/>
-      <c r="B39" s="94"/>
+      <c r="B39" s="103"/>
       <c r="C39" s="49" t="s">
         <v>46</v>
       </c>
@@ -1978,7 +2003,7 @@
     </row>
     <row r="40" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="34"/>
-      <c r="B40" s="94"/>
+      <c r="B40" s="103"/>
       <c r="C40" s="25" t="s">
         <v>47</v>
       </c>
@@ -1993,7 +2018,7 @@
     </row>
     <row r="41" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="34"/>
-      <c r="B41" s="94"/>
+      <c r="B41" s="103"/>
       <c r="C41" s="25" t="s">
         <v>48</v>
       </c>
@@ -2008,7 +2033,7 @@
     </row>
     <row r="42" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="34"/>
-      <c r="B42" s="94"/>
+      <c r="B42" s="103"/>
       <c r="C42" s="49" t="s">
         <v>127</v>
       </c>
@@ -2023,7 +2048,7 @@
     </row>
     <row r="43" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="34"/>
-      <c r="B43" s="95"/>
+      <c r="B43" s="108"/>
       <c r="C43" s="49" t="s">
         <v>42</v>
       </c>
@@ -2038,7 +2063,7 @@
     </row>
     <row r="44" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="34"/>
-      <c r="B44" s="93" t="s">
+      <c r="B44" s="102" t="s">
         <v>63</v>
       </c>
       <c r="C44" s="49" t="s">
@@ -2055,7 +2080,7 @@
     </row>
     <row r="45" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="34"/>
-      <c r="B45" s="94"/>
+      <c r="B45" s="103"/>
       <c r="C45" s="41" t="s">
         <v>65</v>
       </c>
@@ -2070,7 +2095,7 @@
     </row>
     <row r="46" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="34"/>
-      <c r="B46" s="94"/>
+      <c r="B46" s="103"/>
       <c r="C46" s="49" t="s">
         <v>66</v>
       </c>
@@ -2085,8 +2110,8 @@
     </row>
     <row r="47" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="34"/>
-      <c r="B47" s="94"/>
-      <c r="C47" s="49" t="s">
+      <c r="B47" s="103"/>
+      <c r="C47" s="115" t="s">
         <v>67</v>
       </c>
       <c r="D47" s="49"/>
@@ -2100,8 +2125,8 @@
     </row>
     <row r="48" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="34"/>
-      <c r="B48" s="95"/>
-      <c r="C48" s="49" t="s">
+      <c r="B48" s="108"/>
+      <c r="C48" s="115" t="s">
         <v>68</v>
       </c>
       <c r="D48" s="49"/>
@@ -2113,12 +2138,12 @@
       <c r="H48" s="38"/>
       <c r="I48" s="63"/>
     </row>
-    <row r="49" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="34"/>
-      <c r="B49" s="90" t="s">
+      <c r="B49" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="118" t="s">
         <v>58</v>
       </c>
       <c r="D49" s="26"/>
@@ -2128,14 +2153,14 @@
       <c r="F49" s="24"/>
       <c r="G49" s="39"/>
       <c r="H49" s="38"/>
-      <c r="I49" s="114" t="s">
+      <c r="I49" s="86" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="34"/>
-      <c r="B50" s="91"/>
-      <c r="C50" s="47" t="s">
+      <c r="B50" s="106"/>
+      <c r="C50" s="121" t="s">
         <v>59</v>
       </c>
       <c r="D50" s="26"/>
@@ -2145,12 +2170,12 @@
       <c r="F50" s="24"/>
       <c r="G50" s="39"/>
       <c r="H50" s="38"/>
-      <c r="I50" s="115"/>
-    </row>
-    <row r="51" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I50" s="87"/>
+    </row>
+    <row r="51" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="34"/>
-      <c r="B51" s="91"/>
-      <c r="C51" s="47" t="s">
+      <c r="B51" s="106"/>
+      <c r="C51" s="121" t="s">
         <v>60</v>
       </c>
       <c r="D51" s="26"/>
@@ -2160,11 +2185,11 @@
       <c r="F51" s="24"/>
       <c r="G51" s="39"/>
       <c r="H51" s="38"/>
-      <c r="I51" s="115"/>
+      <c r="I51" s="87"/>
     </row>
     <row r="52" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="34"/>
-      <c r="B52" s="91"/>
+      <c r="B52" s="106"/>
       <c r="C52" s="47" t="s">
         <v>61</v>
       </c>
@@ -2175,11 +2200,11 @@
       <c r="F52" s="24"/>
       <c r="G52" s="39"/>
       <c r="H52" s="38"/>
-      <c r="I52" s="115"/>
+      <c r="I52" s="87"/>
     </row>
     <row r="53" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="34"/>
-      <c r="B53" s="92"/>
+      <c r="B53" s="107"/>
       <c r="C53" s="47" t="s">
         <v>62</v>
       </c>
@@ -2190,7 +2215,7 @@
       <c r="F53" s="24"/>
       <c r="G53" s="39"/>
       <c r="H53" s="38"/>
-      <c r="I53" s="116"/>
+      <c r="I53" s="88"/>
     </row>
     <row r="54" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="34"/>
@@ -2237,7 +2262,7 @@
       <c r="F56" s="24"/>
       <c r="G56" s="39"/>
       <c r="H56" s="38"/>
-      <c r="I56" s="111" t="s">
+      <c r="I56" s="84" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2254,7 +2279,7 @@
       <c r="F57" s="24"/>
       <c r="G57" s="39"/>
       <c r="H57" s="38"/>
-      <c r="I57" s="111" t="s">
+      <c r="I57" s="84" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2290,10 +2315,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="34"/>
       <c r="B60" s="65"/>
-      <c r="C60" s="47" t="s">
+      <c r="C60" s="121" t="s">
         <v>76</v>
       </c>
       <c r="D60" s="26"/>
@@ -2332,11 +2357,11 @@
       <c r="I62" s="24"/>
     </row>
     <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B63" s="96" t="s">
+      <c r="B63" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="97"/>
-      <c r="D63" s="98"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="92"/>
       <c r="E63" s="57"/>
       <c r="F63" s="57">
         <f>SUM(E64:E84)</f>
@@ -2353,25 +2378,25 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="99" t="s">
+      <c r="B64" s="94" t="s">
         <v>88</v>
       </c>
       <c r="C64" s="49" t="s">
         <v>87</v>
       </c>
       <c r="D64" s="49"/>
-      <c r="E64" s="78">
+      <c r="E64" s="77">
         <v>42</v>
       </c>
-      <c r="F64" s="76"/>
+      <c r="F64" s="75"/>
       <c r="G64" s="69"/>
       <c r="H64" s="69"/>
       <c r="I64" s="24"/>
     </row>
     <row r="65" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="34"/>
-      <c r="B65" s="100"/>
-      <c r="C65" s="80" t="s">
+      <c r="B65" s="95"/>
+      <c r="C65" s="79" t="s">
         <v>89</v>
       </c>
       <c r="D65" s="67"/>
@@ -2384,8 +2409,8 @@
       <c r="I65" s="68"/>
     </row>
     <row r="66" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="100"/>
-      <c r="C66" s="80" t="s">
+      <c r="B66" s="95"/>
+      <c r="C66" s="79" t="s">
         <v>90</v>
       </c>
       <c r="D66" s="53"/>
@@ -2400,8 +2425,8 @@
     </row>
     <row r="67" spans="1:10" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="34"/>
-      <c r="B67" s="100"/>
-      <c r="C67" s="80" t="s">
+      <c r="B67" s="95"/>
+      <c r="C67" s="79" t="s">
         <v>91</v>
       </c>
       <c r="D67" s="26"/>
@@ -2415,8 +2440,8 @@
     </row>
     <row r="68" spans="1:10" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="34"/>
-      <c r="B68" s="100"/>
-      <c r="C68" s="80" t="s">
+      <c r="B68" s="95"/>
+      <c r="C68" s="79" t="s">
         <v>92</v>
       </c>
       <c r="D68" s="26"/>
@@ -2430,8 +2455,8 @@
     </row>
     <row r="69" spans="1:10" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="34"/>
-      <c r="B69" s="100"/>
-      <c r="C69" s="80" t="s">
+      <c r="B69" s="95"/>
+      <c r="C69" s="79" t="s">
         <v>93</v>
       </c>
       <c r="D69" s="53"/>
@@ -2445,8 +2470,8 @@
     </row>
     <row r="70" spans="1:10" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="34"/>
-      <c r="B70" s="100"/>
-      <c r="C70" s="80" t="s">
+      <c r="B70" s="95"/>
+      <c r="C70" s="79" t="s">
         <v>94</v>
       </c>
       <c r="D70" s="26"/>
@@ -2460,8 +2485,8 @@
     </row>
     <row r="71" spans="1:10" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="34"/>
-      <c r="B71" s="100"/>
-      <c r="C71" s="80" t="s">
+      <c r="B71" s="95"/>
+      <c r="C71" s="79" t="s">
         <v>95</v>
       </c>
       <c r="D71" s="26"/>
@@ -2475,8 +2500,8 @@
     </row>
     <row r="72" spans="1:10" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="34"/>
-      <c r="B72" s="100"/>
-      <c r="C72" s="80" t="s">
+      <c r="B72" s="95"/>
+      <c r="C72" s="79" t="s">
         <v>96</v>
       </c>
       <c r="D72" s="26"/>
@@ -2490,8 +2515,8 @@
     </row>
     <row r="73" spans="1:10" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="34"/>
-      <c r="B73" s="100"/>
-      <c r="C73" s="80" t="s">
+      <c r="B73" s="95"/>
+      <c r="C73" s="79" t="s">
         <v>97</v>
       </c>
       <c r="D73" s="26"/>
@@ -2505,8 +2530,8 @@
     </row>
     <row r="74" spans="1:10" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="34"/>
-      <c r="B74" s="100"/>
-      <c r="C74" s="80" t="s">
+      <c r="B74" s="95"/>
+      <c r="C74" s="79" t="s">
         <v>98</v>
       </c>
       <c r="D74" s="53"/>
@@ -2520,8 +2545,8 @@
     </row>
     <row r="75" spans="1:10" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="34"/>
-      <c r="B75" s="100"/>
-      <c r="C75" s="80" t="s">
+      <c r="B75" s="95"/>
+      <c r="C75" s="79" t="s">
         <v>99</v>
       </c>
       <c r="D75" s="26"/>
@@ -2535,8 +2560,8 @@
     </row>
     <row r="76" spans="1:10" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="34"/>
-      <c r="B76" s="100"/>
-      <c r="C76" s="80" t="s">
+      <c r="B76" s="95"/>
+      <c r="C76" s="79" t="s">
         <v>100</v>
       </c>
       <c r="D76" s="53"/>
@@ -2550,8 +2575,8 @@
     </row>
     <row r="77" spans="1:10" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="34"/>
-      <c r="B77" s="100"/>
-      <c r="C77" s="80" t="s">
+      <c r="B77" s="95"/>
+      <c r="C77" s="79" t="s">
         <v>101</v>
       </c>
       <c r="D77" s="26"/>
@@ -2565,8 +2590,8 @@
     </row>
     <row r="78" spans="1:10" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="34"/>
-      <c r="B78" s="100"/>
-      <c r="C78" s="80" t="s">
+      <c r="B78" s="95"/>
+      <c r="C78" s="79" t="s">
         <v>102</v>
       </c>
       <c r="D78" s="26"/>
@@ -2580,8 +2605,8 @@
     </row>
     <row r="79" spans="1:10" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="34"/>
-      <c r="B79" s="100"/>
-      <c r="C79" s="80" t="s">
+      <c r="B79" s="95"/>
+      <c r="C79" s="79" t="s">
         <v>106</v>
       </c>
       <c r="D79" s="26"/>
@@ -2595,8 +2620,8 @@
     </row>
     <row r="80" spans="1:10" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="34"/>
-      <c r="B80" s="100"/>
-      <c r="C80" s="80" t="s">
+      <c r="B80" s="95"/>
+      <c r="C80" s="79" t="s">
         <v>108</v>
       </c>
       <c r="D80" s="26"/>
@@ -2610,8 +2635,8 @@
     </row>
     <row r="81" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="34"/>
-      <c r="B81" s="100"/>
-      <c r="C81" s="80" t="s">
+      <c r="B81" s="95"/>
+      <c r="C81" s="79" t="s">
         <v>107</v>
       </c>
       <c r="D81" s="26"/>
@@ -2625,8 +2650,8 @@
     </row>
     <row r="82" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="34"/>
-      <c r="B82" s="100"/>
-      <c r="C82" s="80" t="s">
+      <c r="B82" s="95"/>
+      <c r="C82" s="79" t="s">
         <v>103</v>
       </c>
       <c r="D82" s="26"/>
@@ -2640,8 +2665,8 @@
     </row>
     <row r="83" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="34"/>
-      <c r="B83" s="100"/>
-      <c r="C83" s="80" t="s">
+      <c r="B83" s="95"/>
+      <c r="C83" s="79" t="s">
         <v>104</v>
       </c>
       <c r="D83" s="26"/>
@@ -2655,8 +2680,8 @@
     </row>
     <row r="84" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="34"/>
-      <c r="B84" s="100"/>
-      <c r="C84" s="80"/>
+      <c r="B84" s="95"/>
+      <c r="C84" s="79"/>
       <c r="D84" s="26"/>
       <c r="E84" s="24"/>
       <c r="F84" s="24"/>
@@ -2666,11 +2691,11 @@
     </row>
     <row r="85" spans="1:9" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A85" s="34"/>
-      <c r="B85" s="96" t="s">
+      <c r="B85" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="C85" s="97"/>
-      <c r="D85" s="98"/>
+      <c r="C85" s="91"/>
+      <c r="D85" s="92"/>
       <c r="E85" s="57"/>
       <c r="F85" s="57">
         <f>SUM(E86:E93)</f>
@@ -2688,7 +2713,7 @@
     </row>
     <row r="86" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="34"/>
-      <c r="B86" s="99" t="s">
+      <c r="B86" s="94" t="s">
         <v>105</v>
       </c>
       <c r="C86" s="25" t="s">
@@ -2705,7 +2730,7 @@
     </row>
     <row r="87" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="34"/>
-      <c r="B87" s="100"/>
+      <c r="B87" s="95"/>
       <c r="C87" s="54" t="s">
         <v>26</v>
       </c>
@@ -2720,7 +2745,7 @@
     </row>
     <row r="88" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="34"/>
-      <c r="B88" s="100"/>
+      <c r="B88" s="95"/>
       <c r="C88" s="54" t="s">
         <v>109</v>
       </c>
@@ -2735,11 +2760,11 @@
     </row>
     <row r="89" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="34"/>
-      <c r="B89" s="100"/>
+      <c r="B89" s="95"/>
       <c r="C89" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="E89" s="78">
+      <c r="E89" s="77">
         <v>8</v>
       </c>
       <c r="G89" s="39"/>
@@ -2748,7 +2773,7 @@
     </row>
     <row r="90" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="34"/>
-      <c r="B90" s="100"/>
+      <c r="B90" s="95"/>
       <c r="C90" s="54" t="s">
         <v>111</v>
       </c>
@@ -2763,7 +2788,7 @@
     </row>
     <row r="91" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="34"/>
-      <c r="B91" s="100"/>
+      <c r="B91" s="95"/>
       <c r="C91" s="25" t="s">
         <v>104</v>
       </c>
@@ -2778,7 +2803,7 @@
     </row>
     <row r="92" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="34"/>
-      <c r="B92" s="100"/>
+      <c r="B92" s="95"/>
       <c r="C92" s="54" t="s">
         <v>32</v>
       </c>
@@ -2793,7 +2818,7 @@
     </row>
     <row r="93" spans="1:9" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="34"/>
-      <c r="B93" s="100"/>
+      <c r="B93" s="95"/>
       <c r="C93" s="54"/>
       <c r="D93" s="26"/>
       <c r="E93" s="24"/>
@@ -2804,11 +2829,11 @@
     </row>
     <row r="94" spans="1:9" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A94" s="34"/>
-      <c r="B94" s="96" t="s">
+      <c r="B94" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="C94" s="97"/>
-      <c r="D94" s="98"/>
+      <c r="C94" s="91"/>
+      <c r="D94" s="92"/>
       <c r="E94" s="57"/>
       <c r="F94" s="57">
         <f>SUM(E95:E101)</f>
@@ -2826,7 +2851,7 @@
     </row>
     <row r="95" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="34"/>
-      <c r="B95" s="99" t="s">
+      <c r="B95" s="94" t="s">
         <v>112</v>
       </c>
       <c r="C95" s="25" t="s">
@@ -2835,10 +2860,10 @@
       <c r="D95" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="E95" s="81">
+      <c r="E95" s="80">
         <v>10</v>
       </c>
-      <c r="F95" s="81"/>
+      <c r="F95" s="80"/>
       <c r="G95" s="26"/>
       <c r="H95" s="26"/>
       <c r="I95" s="26" t="s">
@@ -2847,13 +2872,13 @@
     </row>
     <row r="96" spans="1:9" s="41" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="34"/>
-      <c r="B96" s="100"/>
+      <c r="B96" s="95"/>
       <c r="C96" s="25" t="s">
         <v>115</v>
       </c>
       <c r="D96" s="26"/>
-      <c r="E96" s="81"/>
-      <c r="F96" s="81"/>
+      <c r="E96" s="80"/>
+      <c r="F96" s="80"/>
       <c r="G96" s="26"/>
       <c r="H96" s="26"/>
       <c r="I96" s="53" t="s">
@@ -2862,30 +2887,30 @@
     </row>
     <row r="97" spans="1:11" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="34"/>
-      <c r="B97" s="100"/>
+      <c r="B97" s="95"/>
       <c r="C97" s="25" t="s">
         <v>116</v>
       </c>
       <c r="D97" s="26"/>
-      <c r="E97" s="81">
+      <c r="E97" s="80">
         <v>16</v>
       </c>
-      <c r="F97" s="81"/>
+      <c r="F97" s="80"/>
       <c r="G97" s="26"/>
       <c r="H97" s="26"/>
       <c r="I97" s="26"/>
     </row>
     <row r="98" spans="1:11" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="34"/>
-      <c r="B98" s="100"/>
+      <c r="B98" s="95"/>
       <c r="C98" s="54" t="s">
         <v>117</v>
       </c>
       <c r="D98" s="26"/>
-      <c r="E98" s="81">
+      <c r="E98" s="80">
         <v>16</v>
       </c>
-      <c r="F98" s="81"/>
+      <c r="F98" s="80"/>
       <c r="G98" s="26"/>
       <c r="H98" s="26"/>
       <c r="I98" s="26"/>
@@ -2894,7 +2919,7 @@
     </row>
     <row r="99" spans="1:11" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="34"/>
-      <c r="B99" s="100"/>
+      <c r="B99" s="95"/>
       <c r="C99" s="25" t="s">
         <v>110</v>
       </c>
@@ -2909,13 +2934,13 @@
     </row>
     <row r="100" spans="1:11" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="34"/>
-      <c r="B100" s="100"/>
+      <c r="B100" s="95"/>
       <c r="C100" s="54" t="s">
         <v>137</v>
       </c>
       <c r="D100" s="26"/>
-      <c r="E100" s="81"/>
-      <c r="F100" s="81"/>
+      <c r="E100" s="80"/>
+      <c r="F100" s="80"/>
       <c r="G100" s="26"/>
       <c r="H100" s="26"/>
       <c r="I100" s="63" t="s">
@@ -2924,21 +2949,21 @@
     </row>
     <row r="101" spans="1:11" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="34"/>
-      <c r="B101" s="100"/>
+      <c r="B101" s="95"/>
       <c r="C101" s="54"/>
       <c r="D101" s="26"/>
-      <c r="E101" s="81"/>
-      <c r="F101" s="81"/>
+      <c r="E101" s="80"/>
+      <c r="F101" s="80"/>
       <c r="G101" s="26"/>
       <c r="H101" s="26"/>
       <c r="I101" s="26"/>
     </row>
     <row r="102" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="B102" s="96" t="s">
+      <c r="B102" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="C102" s="97"/>
-      <c r="D102" s="98"/>
+      <c r="C102" s="91"/>
+      <c r="D102" s="92"/>
       <c r="E102" s="57"/>
       <c r="F102" s="57"/>
       <c r="G102" s="45" t="s">
@@ -2952,7 +2977,7 @@
       </c>
     </row>
     <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.2">
-      <c r="B103" s="109" t="s">
+      <c r="B103" s="93" t="s">
         <v>4</v>
       </c>
       <c r="C103" s="42" t="s">
@@ -2961,58 +2986,58 @@
       <c r="D103" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="E103" s="88">
+      <c r="E103" s="89">
         <f>ROUND(SUM(F12,F63,F85,F94)*0.1,0)</f>
         <v>95</v>
       </c>
-      <c r="F103" s="88"/>
+      <c r="F103" s="89"/>
       <c r="G103" s="2"/>
       <c r="H103" s="22"/>
       <c r="I103" s="3"/>
     </row>
     <row r="104" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="34"/>
-      <c r="B104" s="109"/>
+      <c r="B104" s="93"/>
       <c r="C104" s="37" t="s">
         <v>5</v>
       </c>
       <c r="D104" s="37"/>
-      <c r="E104" s="88"/>
-      <c r="F104" s="88"/>
+      <c r="E104" s="89"/>
+      <c r="F104" s="89"/>
       <c r="G104" s="33"/>
       <c r="H104" s="38"/>
       <c r="I104" s="40"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="109"/>
+      <c r="B105" s="93"/>
       <c r="C105" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D105" s="13"/>
-      <c r="E105" s="88"/>
-      <c r="F105" s="88"/>
+      <c r="E105" s="89"/>
+      <c r="F105" s="89"/>
       <c r="I105" s="41"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="109"/>
+      <c r="B106" s="93"/>
       <c r="C106" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D106" s="13"/>
-      <c r="E106" s="88"/>
-      <c r="F106" s="88"/>
+      <c r="E106" s="89"/>
+      <c r="F106" s="89"/>
       <c r="I106" s="41"/>
     </row>
     <row r="107" spans="1:11" ht="45" x14ac:dyDescent="0.2">
-      <c r="B107" s="109"/>
+      <c r="B107" s="93"/>
       <c r="C107" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E107" s="88"/>
-      <c r="F107" s="88"/>
+      <c r="E107" s="89"/>
+      <c r="F107" s="89"/>
       <c r="I107" s="41"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
@@ -3077,12 +3102,13 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="I49:I53"/>
-    <mergeCell ref="F103:F107"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:B93"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="B15:B28"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B3:D3"/>
@@ -3093,16 +3119,15 @@
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="E9:E11"/>
+    <mergeCell ref="I49:I53"/>
+    <mergeCell ref="F103:F107"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:B93"/>
     <mergeCell ref="E103:E107"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="B15:B28"/>
     <mergeCell ref="B94:D94"/>
     <mergeCell ref="B95:B101"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
     <mergeCell ref="B64:B84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
